--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE964C84-66E6-4D7A-8865-4F198083657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E235F35-A7BB-4E59-AED2-5A9695E27FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -55,22 +55,22 @@
     <t xml:space="preserve">Days from 1st loan </t>
   </si>
   <si>
-    <t>Cond. on repaying</t>
-  </si>
-  <si>
     <t>Cond. on default</t>
   </si>
   <si>
     <t>Different collateral</t>
   </si>
   <si>
-    <t>After recovery</t>
+    <t>Ever pawns again (ITT)</t>
   </si>
   <si>
-    <t>Before recovery</t>
+    <t>Cond. on rec</t>
   </si>
   <si>
-    <t>Ever pawns again (ITT)</t>
+    <t>After 90 days</t>
+  </si>
+  <si>
+    <t>Within 90 days</t>
   </si>
 </sst>
 </file>
@@ -149,9 +149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -166,6 +163,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -233,10 +233,10 @@
             <v>0.034</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.050***</v>
+            <v>0.029***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.0090</v>
+            <v>0.032</v>
           </cell>
           <cell r="H5" t="str">
             <v>6.76***</v>
@@ -259,10 +259,10 @@
             <v>(0.027)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.014)</v>
+            <v>(0.0086)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.026)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="H6" t="str">
             <v>(2.42)</v>
@@ -282,10 +282,10 @@
             <v>0.024</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.013</v>
+            <v>0.0047</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.022</v>
+            <v>0.030</v>
           </cell>
           <cell r="H8" t="str">
             <v>0.92</v>
@@ -308,10 +308,10 @@
             <v>(0.025)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.0095)</v>
+            <v>(0.0048)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.025)</v>
+            <v>(0.027)</v>
           </cell>
           <cell r="H9" t="str">
             <v>(1.94)</v>
@@ -357,7 +357,7 @@
             <v>0.008</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.000</v>
+            <v>0.001</v>
           </cell>
           <cell r="H12" t="str">
             <v>0.012</v>
@@ -380,10 +380,10 @@
             <v>0.27</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.032</v>
+            <v>0.0081</v>
           </cell>
           <cell r="G13" t="str">
-            <v>0.27</v>
+            <v>0.30</v>
           </cell>
           <cell r="H13" t="str">
             <v>30.1</v>
@@ -712,80 +712,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <f>[1]repeat_loans!A2</f>
         <v/>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="8" t="str">
         <f>[1]repeat_loans!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="8" t="str">
         <f>[1]repeat_loans!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="8" t="str">
         <f>[1]repeat_loans!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="8" t="str">
         <f>[1]repeat_loans!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="8" t="str">
         <f>[1]repeat_loans!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="8" t="str">
         <f>[1]repeat_loans!G2</f>
         <v>(6)</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="str">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="str">
         <f>[1]repeat_loans!H2</f>
         <v>(7)</v>
       </c>
@@ -812,11 +812,11 @@
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
-        <v>0.050***</v>
+        <v>0.029***</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]repeat_loans!G5</f>
-        <v>0.0090</v>
+        <v>0.032</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]repeat_loans!H5</f>
@@ -846,11 +846,11 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.014)</v>
+        <v>(0.0086)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]repeat_loans!G6</f>
-        <v>(0.026)</v>
+        <v>(0.028)</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]repeat_loans!H6</f>
@@ -879,11 +879,11 @@
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.013</v>
+        <v>0.0047</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]repeat_loans!G8</f>
-        <v>0.022</v>
+        <v>0.030</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]repeat_loans!H8</f>
@@ -913,11 +913,11 @@
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.0095)</v>
+        <v>(0.0048)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]repeat_loans!G9</f>
-        <v>(0.025)</v>
+        <v>(0.027)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]repeat_loans!H9</f>
@@ -925,35 +925,35 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="9" t="str">
         <f>[1]repeat_loans!B11</f>
         <v>4441</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="9" t="str">
         <f>[1]repeat_loans!C11</f>
         <v>2102</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="9" t="str">
         <f>[1]repeat_loans!D11</f>
         <v>2339</v>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="E10" s="9" t="str">
         <f>[1]repeat_loans!E11</f>
         <v>4441</v>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="9" t="str">
         <f>[1]repeat_loans!F11</f>
         <v>4441</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="9" t="str">
         <f>[1]repeat_loans!G11</f>
         <v>4441</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="str">
         <f>[1]repeat_loans!H11</f>
         <v>1493</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]repeat_loans!G12</f>
-        <v>0.000</v>
+        <v>0.001</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>[1]repeat_loans!H12</f>
@@ -992,36 +992,36 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="3" t="str">
         <f>[1]repeat_loans!A13</f>
         <v>Control Mean</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="7" t="str">
         <f>[1]repeat_loans!B13</f>
         <v>0.30</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="7" t="str">
         <f>[1]repeat_loans!C13</f>
         <v>0.33</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="7" t="str">
         <f>[1]repeat_loans!D13</f>
         <v>0.28</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7" t="str">
         <f>[1]repeat_loans!E13</f>
         <v>0.27</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="7" t="str">
         <f>[1]repeat_loans!F13</f>
-        <v>0.032</v>
-      </c>
-      <c r="G12" s="8" t="str">
+        <v>0.0081</v>
+      </c>
+      <c r="G12" s="7" t="str">
         <f>[1]repeat_loans!G13</f>
-        <v>0.27</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="str">
+        <v>0.30</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="str">
         <f>[1]repeat_loans!H13</f>
         <v>30.1</v>
       </c>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E235F35-A7BB-4E59-AED2-5A9695E27FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688252BF-2425-43AE-A624-D26C9884F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-19875" yWindow="-14160" windowWidth="19185" windowHeight="11265" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -221,25 +221,25 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.059*</v>
+            <v>0.067*</v>
           </cell>
           <cell r="C5" t="str">
             <v>0.10**</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.016</v>
+            <v>-0.0046</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.034</v>
+            <v>0.036</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.029***</v>
+            <v>0.037***</v>
           </cell>
           <cell r="G5" t="str">
             <v>0.032</v>
           </cell>
           <cell r="H5" t="str">
-            <v>6.76***</v>
+            <v>7.72**</v>
           </cell>
         </row>
         <row r="6">
@@ -247,48 +247,48 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.032)</v>
+            <v>(0.035)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.044)</v>
+            <v>(0.047)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.034)</v>
+            <v>(0.035)</v>
           </cell>
           <cell r="E6" t="str">
+            <v>(0.030)</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>(0.013)</v>
+          </cell>
+          <cell r="G6" t="str">
             <v>(0.027)</v>
           </cell>
-          <cell r="F6" t="str">
-            <v>(0.0086)</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>(0.028)</v>
-          </cell>
           <cell r="H6" t="str">
-            <v>(2.42)</v>
+            <v>(3.07)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>0.035</v>
+            <v>0.040</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.055</v>
+            <v>0.051</v>
           </cell>
           <cell r="D8" t="str">
-            <v>0.015</v>
+            <v>0.026</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.024</v>
+            <v>0.027</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.0047</v>
+            <v>0.0098</v>
           </cell>
           <cell r="G8" t="str">
             <v>0.030</v>
           </cell>
           <cell r="H8" t="str">
-            <v>0.92</v>
+            <v>1.72</v>
           </cell>
         </row>
         <row r="9">
@@ -296,25 +296,25 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.028)</v>
+            <v>(0.031)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.039)</v>
+            <v>(0.042)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.032)</v>
+            <v>(0.034)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.025)</v>
+            <v>(0.027)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.0048)</v>
+            <v>(0.0087)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.027)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(1.94)</v>
+            <v>(2.59)</v>
           </cell>
         </row>
         <row r="11">
@@ -322,10 +322,10 @@
             <v>4441</v>
           </cell>
           <cell r="C11" t="str">
-            <v>2102</v>
+            <v>2168</v>
           </cell>
           <cell r="D11" t="str">
-            <v>2339</v>
+            <v>2273</v>
           </cell>
           <cell r="E11" t="str">
             <v>4441</v>
@@ -337,12 +337,12 @@
             <v>4441</v>
           </cell>
           <cell r="H11" t="str">
-            <v>1493</v>
+            <v>1577</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.002</v>
+            <v>0.003</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.007</v>
@@ -354,13 +354,13 @@
             <v>0.001</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.008</v>
+            <v>0.006</v>
           </cell>
           <cell r="G12" t="str">
             <v>0.001</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.012</v>
+            <v>0.011</v>
           </cell>
         </row>
         <row r="13">
@@ -368,25 +368,25 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
-            <v>0.30</v>
+            <v>0.32</v>
           </cell>
           <cell r="C13" t="str">
-            <v>0.33</v>
+            <v>0.36</v>
           </cell>
           <cell r="D13" t="str">
+            <v>0.29</v>
+          </cell>
+          <cell r="E13" t="str">
             <v>0.28</v>
           </cell>
-          <cell r="E13" t="str">
-            <v>0.27</v>
-          </cell>
           <cell r="F13" t="str">
-            <v>0.0081</v>
+            <v>0.020</v>
           </cell>
           <cell r="G13" t="str">
             <v>0.30</v>
           </cell>
           <cell r="H13" t="str">
-            <v>30.1</v>
+            <v>32.9</v>
           </cell>
         </row>
       </sheetData>
@@ -796,7 +796,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]repeat_loans!B5</f>
-        <v>0.059*</v>
+        <v>0.067*</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]repeat_loans!C5</f>
@@ -804,15 +804,15 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]repeat_loans!D5</f>
-        <v>-0.016</v>
+        <v>-0.0046</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
-        <v>0.029***</v>
+        <v>0.037***</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]repeat_loans!G5</f>
@@ -820,7 +820,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]repeat_loans!H5</f>
-        <v>6.76***</v>
+        <v>7.72**</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -830,31 +830,31 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]repeat_loans!B6</f>
-        <v>(0.032)</v>
+        <v>(0.035)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]repeat_loans!C6</f>
-        <v>(0.044)</v>
+        <v>(0.047)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]repeat_loans!D6</f>
-        <v>(0.034)</v>
+        <v>(0.035)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]repeat_loans!E6</f>
-        <v>(0.027)</v>
+        <v>(0.030)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.0086)</v>
+        <v>(0.013)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]repeat_loans!G6</f>
-        <v>(0.028)</v>
+        <v>(0.027)</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]repeat_loans!H6</f>
-        <v>(2.42)</v>
+        <v>(3.07)</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -863,23 +863,23 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]repeat_loans!B8</f>
-        <v>0.035</v>
+        <v>0.040</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]repeat_loans!C8</f>
-        <v>0.055</v>
+        <v>0.051</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]repeat_loans!D8</f>
-        <v>0.015</v>
+        <v>0.026</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.0047</v>
+        <v>0.0098</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]repeat_loans!G8</f>
@@ -887,7 +887,7 @@
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]repeat_loans!H8</f>
-        <v>0.92</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -897,31 +897,31 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]repeat_loans!B9</f>
-        <v>(0.028)</v>
+        <v>(0.031)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]repeat_loans!C9</f>
-        <v>(0.039)</v>
+        <v>(0.042)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]repeat_loans!D9</f>
-        <v>(0.032)</v>
+        <v>(0.034)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.025)</v>
+        <v>(0.027)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.0048)</v>
+        <v>(0.0087)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]repeat_loans!G9</f>
-        <v>(0.027)</v>
+        <v>(0.026)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]repeat_loans!H9</f>
-        <v>(1.94)</v>
+        <v>(2.59)</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -934,11 +934,11 @@
       </c>
       <c r="C10" s="9" t="str">
         <f>[1]repeat_loans!C11</f>
-        <v>2102</v>
+        <v>2168</v>
       </c>
       <c r="D10" s="9" t="str">
         <f>[1]repeat_loans!D11</f>
-        <v>2339</v>
+        <v>2273</v>
       </c>
       <c r="E10" s="9" t="str">
         <f>[1]repeat_loans!E11</f>
@@ -955,7 +955,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="str">
         <f>[1]repeat_loans!H11</f>
-        <v>1493</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]repeat_loans!B12</f>
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]repeat_loans!C12</f>
@@ -980,7 +980,7 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]repeat_loans!F12</f>
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]repeat_loans!G12</f>
@@ -988,7 +988,7 @@
       </c>
       <c r="I11" s="1" t="str">
         <f>[1]repeat_loans!H12</f>
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -998,23 +998,23 @@
       </c>
       <c r="B12" s="7" t="str">
         <f>[1]repeat_loans!B13</f>
-        <v>0.30</v>
+        <v>0.32</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>[1]repeat_loans!C13</f>
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>[1]repeat_loans!D13</f>
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="E12" s="7" t="str">
         <f>[1]repeat_loans!E13</f>
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>[1]repeat_loans!F13</f>
-        <v>0.0081</v>
+        <v>0.020</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>[1]repeat_loans!G13</f>
@@ -1023,7 +1023,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="str">
         <f>[1]repeat_loans!H13</f>
-        <v>30.1</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688252BF-2425-43AE-A624-D26C9884F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77209898-300C-4E19-B76C-84D47A62298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19875" yWindow="-14160" windowWidth="19185" windowHeight="11265" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>R-squared</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Forced commitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days from 1st loan </t>
-  </si>
-  <si>
-    <t>Cond. on default</t>
   </si>
   <si>
     <t>Different collateral</t>
@@ -186,8 +180,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="repeat_loans"/>
     </sheetNames>
@@ -212,34 +209,22 @@
           <cell r="F2" t="str">
             <v>(5)</v>
           </cell>
-          <cell r="G2" t="str">
-            <v>(6)</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>(7)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>0.067*</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.10**</v>
+            <v>0.11**</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.0046</v>
+            <v>0.048*</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.036</v>
+            <v>0.037***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.037***</v>
-          </cell>
-          <cell r="G5" t="str">
             <v>0.032</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>7.72**</v>
           </cell>
         </row>
         <row r="6">
@@ -250,22 +235,16 @@
             <v>(0.035)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.047)</v>
+            <v>(0.046)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.035)</v>
+            <v>(0.029)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.030)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.013)</v>
-          </cell>
-          <cell r="G6" t="str">
             <v>(0.027)</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>(3.07)</v>
           </cell>
         </row>
         <row r="8">
@@ -273,22 +252,16 @@
             <v>0.040</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.051</v>
+            <v>0.058</v>
           </cell>
           <cell r="D8" t="str">
-            <v>0.026</v>
+            <v>0.036</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.027</v>
+            <v>0.0098</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.0098</v>
-          </cell>
-          <cell r="G8" t="str">
             <v>0.030</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>1.72</v>
           </cell>
         </row>
         <row r="9">
@@ -299,22 +272,16 @@
             <v>(0.031)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.042)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.034)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.027)</v>
+            <v>(0.0087)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.0087)</v>
-          </cell>
-          <cell r="G9" t="str">
             <v>(0.026)</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>(2.59)</v>
           </cell>
         </row>
         <row r="11">
@@ -322,22 +289,16 @@
             <v>4441</v>
           </cell>
           <cell r="C11" t="str">
-            <v>2168</v>
+            <v>2173</v>
           </cell>
           <cell r="D11" t="str">
-            <v>2273</v>
+            <v>4441</v>
           </cell>
           <cell r="E11" t="str">
             <v>4441</v>
           </cell>
           <cell r="F11" t="str">
             <v>4441</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>4441</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>1577</v>
           </cell>
         </row>
         <row r="12">
@@ -345,22 +306,16 @@
             <v>0.003</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.007</v>
+            <v>0.008</v>
           </cell>
           <cell r="D12" t="str">
+            <v>0.002</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>0.006</v>
+          </cell>
+          <cell r="F12" t="str">
             <v>0.001</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>0.001</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>0.006</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>0.001</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>0.011</v>
           </cell>
         </row>
         <row r="13">
@@ -371,22 +326,16 @@
             <v>0.32</v>
           </cell>
           <cell r="C13" t="str">
-            <v>0.36</v>
+            <v>0.35</v>
           </cell>
           <cell r="D13" t="str">
             <v>0.29</v>
           </cell>
           <cell r="E13" t="str">
-            <v>0.28</v>
+            <v>0.020</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.020</v>
-          </cell>
-          <cell r="G13" t="str">
             <v>0.30</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>32.9</v>
           </cell>
         </row>
       </sheetData>
@@ -684,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,70 +641,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CDD8A-A5B9-4973-A3CC-B413497D22BE}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I12"/>
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>[1]repeat_loans!A2</f>
         <v/>
@@ -780,17 +715,8 @@
         <f>[1]repeat_loans!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G4" s="8" t="str">
-        <f>[1]repeat_loans!G2</f>
-        <v>(6)</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="str">
-        <f>[1]repeat_loans!H2</f>
-        <v>(7)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -800,30 +726,22 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]repeat_loans!C5</f>
-        <v>0.10**</v>
+        <v>0.11**</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]repeat_loans!D5</f>
-        <v>-0.0046</v>
+        <v>0.048*</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.036</v>
+        <v>0.037***</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
-        <v>0.037***</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>[1]repeat_loans!G5</f>
         <v>0.032</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <f>[1]repeat_loans!H5</f>
-        <v>7.72**</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]repeat_loans!A6</f>
         <v/>
@@ -834,30 +752,22 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]repeat_loans!C6</f>
-        <v>(0.047)</v>
+        <v>(0.046)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]repeat_loans!D6</f>
-        <v>(0.035)</v>
+        <v>(0.029)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]repeat_loans!E6</f>
-        <v>(0.030)</v>
+        <v>(0.013)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.013)</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>[1]repeat_loans!G6</f>
         <v>(0.027)</v>
       </c>
-      <c r="I6" s="1" t="str">
-        <f>[1]repeat_loans!H6</f>
-        <v>(3.07)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -867,30 +777,22 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]repeat_loans!C8</f>
-        <v>0.051</v>
+        <v>0.058</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]repeat_loans!D8</f>
-        <v>0.026</v>
+        <v>0.036</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.027</v>
+        <v>0.0098</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.0098</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>[1]repeat_loans!G8</f>
         <v>0.030</v>
       </c>
-      <c r="I7" s="1" t="str">
-        <f>[1]repeat_loans!H8</f>
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>[1]repeat_loans!A9</f>
         <v/>
@@ -901,30 +803,22 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]repeat_loans!C9</f>
-        <v>(0.042)</v>
+        <v>(0.041)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]repeat_loans!D9</f>
-        <v>(0.034)</v>
+        <v>(0.026)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.027)</v>
+        <v>(0.0087)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.0087)</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>[1]repeat_loans!G9</f>
         <v>(0.026)</v>
       </c>
-      <c r="I8" s="1" t="str">
-        <f>[1]repeat_loans!H9</f>
-        <v>(2.59)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -934,11 +828,11 @@
       </c>
       <c r="C10" s="9" t="str">
         <f>[1]repeat_loans!C11</f>
-        <v>2168</v>
+        <v>2173</v>
       </c>
       <c r="D10" s="9" t="str">
         <f>[1]repeat_loans!D11</f>
-        <v>2273</v>
+        <v>4441</v>
       </c>
       <c r="E10" s="9" t="str">
         <f>[1]repeat_loans!E11</f>
@@ -948,17 +842,8 @@
         <f>[1]repeat_loans!F11</f>
         <v>4441</v>
       </c>
-      <c r="G10" s="9" t="str">
-        <f>[1]repeat_loans!G11</f>
-        <v>4441</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="str">
-        <f>[1]repeat_loans!H11</f>
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -968,30 +853,22 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]repeat_loans!C12</f>
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]repeat_loans!D12</f>
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]repeat_loans!E12</f>
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]repeat_loans!F12</f>
-        <v>0.006</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>[1]repeat_loans!G12</f>
         <v>0.001</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f>[1]repeat_loans!H12</f>
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f>[1]repeat_loans!A13</f>
         <v>Control Mean</v>
@@ -1002,7 +879,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>[1]repeat_loans!C13</f>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>[1]repeat_loans!D13</f>
@@ -1010,26 +887,17 @@
       </c>
       <c r="E12" s="7" t="str">
         <f>[1]repeat_loans!E13</f>
-        <v>0.28</v>
+        <v>0.020</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>[1]repeat_loans!F13</f>
-        <v>0.020</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f>[1]repeat_loans!G13</f>
         <v>0.30</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="str">
-        <f>[1]repeat_loans!H13</f>
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77209898-300C-4E19-B76C-84D47A62298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E9BBE-5778-40AA-81D4-C9A50454315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
@@ -215,16 +215,16 @@
             <v>0.067*</v>
           </cell>
           <cell r="C5" t="str">
+            <v>0.037***</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>0.032</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>0.048*</v>
+          </cell>
+          <cell r="F5" t="str">
             <v>0.11**</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>0.048*</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>0.037***</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>0.032</v>
           </cell>
         </row>
         <row r="6">
@@ -235,16 +235,16 @@
             <v>(0.035)</v>
           </cell>
           <cell r="C6" t="str">
+            <v>(0.013)</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>(0.027)</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>(0.029)</v>
+          </cell>
+          <cell r="F6" t="str">
             <v>(0.046)</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>(0.029)</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>(0.013)</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>(0.027)</v>
           </cell>
         </row>
         <row r="8">
@@ -252,16 +252,16 @@
             <v>0.040</v>
           </cell>
           <cell r="C8" t="str">
+            <v>0.0098</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>0.030</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>0.036</v>
+          </cell>
+          <cell r="F8" t="str">
             <v>0.058</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>0.036</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>0.0098</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>0.030</v>
           </cell>
         </row>
         <row r="9">
@@ -272,16 +272,16 @@
             <v>(0.031)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.041)</v>
+            <v>(0.0087)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.026)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.0087)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.026)</v>
+            <v>(0.041)</v>
           </cell>
         </row>
         <row r="11">
@@ -289,7 +289,7 @@
             <v>4441</v>
           </cell>
           <cell r="C11" t="str">
-            <v>2173</v>
+            <v>4441</v>
           </cell>
           <cell r="D11" t="str">
             <v>4441</v>
@@ -298,7 +298,7 @@
             <v>4441</v>
           </cell>
           <cell r="F11" t="str">
-            <v>4441</v>
+            <v>2173</v>
           </cell>
         </row>
         <row r="12">
@@ -306,16 +306,16 @@
             <v>0.003</v>
           </cell>
           <cell r="C12" t="str">
+            <v>0.006</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>0.001</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>0.002</v>
+          </cell>
+          <cell r="F12" t="str">
             <v>0.008</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>0.002</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>0.006</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>0.001</v>
           </cell>
         </row>
         <row r="13">
@@ -326,16 +326,16 @@
             <v>0.32</v>
           </cell>
           <cell r="C13" t="str">
+            <v>0.020</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>0.30</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>0.29</v>
+          </cell>
+          <cell r="F13" t="str">
             <v>0.35</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>0.29</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>0.020</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>0.30</v>
           </cell>
         </row>
       </sheetData>
@@ -678,16 +678,16 @@
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,19 +726,19 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]repeat_loans!C5</f>
-        <v>0.11**</v>
+        <v>0.037***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]repeat_loans!D5</f>
-        <v>0.048*</v>
+        <v>0.032</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.037***</v>
+        <v>0.048*</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
-        <v>0.032</v>
+        <v>0.11**</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,19 +752,19 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]repeat_loans!C6</f>
-        <v>(0.046)</v>
+        <v>(0.013)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]repeat_loans!D6</f>
-        <v>(0.029)</v>
+        <v>(0.027)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]repeat_loans!E6</f>
-        <v>(0.013)</v>
+        <v>(0.029)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.027)</v>
+        <v>(0.046)</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,19 +777,19 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]repeat_loans!C8</f>
-        <v>0.058</v>
+        <v>0.0098</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]repeat_loans!D8</f>
-        <v>0.036</v>
+        <v>0.030</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.0098</v>
+        <v>0.036</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.030</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]repeat_loans!C9</f>
-        <v>(0.041)</v>
+        <v>(0.0087)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]repeat_loans!D9</f>
@@ -811,11 +811,11 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.0087)</v>
+        <v>(0.026)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.026)</v>
+        <v>(0.041)</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
       </c>
       <c r="C10" s="9" t="str">
         <f>[1]repeat_loans!C11</f>
-        <v>2173</v>
+        <v>4441</v>
       </c>
       <c r="D10" s="9" t="str">
         <f>[1]repeat_loans!D11</f>
@@ -840,7 +840,7 @@
       </c>
       <c r="F10" s="9" t="str">
         <f>[1]repeat_loans!F11</f>
-        <v>4441</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,19 +853,19 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]repeat_loans!C12</f>
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]repeat_loans!D12</f>
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]repeat_loans!E12</f>
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]repeat_loans!F12</f>
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -879,19 +879,19 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>[1]repeat_loans!C13</f>
-        <v>0.35</v>
+        <v>0.020</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>[1]repeat_loans!D13</f>
-        <v>0.29</v>
+        <v>0.30</v>
       </c>
       <c r="E12" s="7" t="str">
         <f>[1]repeat_loans!E13</f>
-        <v>0.020</v>
+        <v>0.29</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>[1]repeat_loans!F13</f>
-        <v>0.30</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E9BBE-5778-40AA-81D4-C9A50454315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62BEB8-E057-4BBE-9135-27436A4ED598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
             <v>0.032</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.048*</v>
+            <v>0.044</v>
           </cell>
           <cell r="F5" t="str">
             <v>0.11**</v>
@@ -241,7 +241,7 @@
             <v>(0.027)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.029)</v>
+            <v>(0.030)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.046)</v>
@@ -258,10 +258,10 @@
             <v>0.030</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.036</v>
+            <v>0.037</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.058</v>
+            <v>0.054</v>
           </cell>
         </row>
         <row r="9">
@@ -278,7 +278,7 @@
             <v>(0.026)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.026)</v>
+            <v>(0.027)</v>
           </cell>
           <cell r="F9" t="str">
             <v>(0.041)</v>
@@ -298,7 +298,7 @@
             <v>4441</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2173</v>
+            <v>2172</v>
           </cell>
         </row>
         <row r="12">
@@ -315,7 +315,7 @@
             <v>0.002</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.008</v>
+            <v>0.007</v>
           </cell>
         </row>
         <row r="13">
@@ -633,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,17 +647,17 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -665,7 +665,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>[1]repeat_loans!A2</f>
         <v/>
@@ -716,7 +716,7 @@
         <v>(5)</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -734,14 +734,14 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.048*</v>
+        <v>0.044</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
         <v>0.11**</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]repeat_loans!A6</f>
         <v/>
@@ -760,14 +760,14 @@
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]repeat_loans!E6</f>
-        <v>(0.029)</v>
+        <v>(0.030)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
         <v>(0.046)</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -785,14 +785,14 @@
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]repeat_loans!A9</f>
         <v/>
@@ -811,14 +811,14 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.026)</v>
+        <v>(0.027)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
         <v>(0.041)</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -840,10 +840,10 @@
       </c>
       <c r="F10" s="9" t="str">
         <f>[1]repeat_loans!F11</f>
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -865,10 +865,10 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]repeat_loans!F12</f>
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="str">
         <f>[1]repeat_loans!A13</f>
         <v>Control Mean</v>
@@ -894,7 +894,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62BEB8-E057-4BBE-9135-27436A4ED598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BCAAF3-F96B-4B8B-8D54-F20369E40127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-17535" yWindow="-11040" windowWidth="14400" windowHeight="8175" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>R-squared</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Within 90 days</t>
+  </si>
+  <si>
+    <t>Diff collateral cond. on rec</t>
   </si>
 </sst>
 </file>
@@ -100,15 +103,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -134,11 +128,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,7 +151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -159,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -209,6 +213,9 @@
           <cell r="F2" t="str">
             <v>(5)</v>
           </cell>
+          <cell r="G2" t="str">
+            <v>(6)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
@@ -221,10 +228,13 @@
             <v>0.032</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.044</v>
+            <v>0.047</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.11**</v>
+            <v>0.10**</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>0.072*</v>
           </cell>
         </row>
         <row r="6">
@@ -244,7 +254,10 @@
             <v>(0.030)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.046)</v>
+            <v>(0.047)</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>(0.039)</v>
           </cell>
         </row>
         <row r="8">
@@ -258,10 +271,13 @@
             <v>0.030</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.037</v>
+            <v>0.041</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.054</v>
+            <v>0.049</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>0.053</v>
           </cell>
         </row>
         <row r="9">
@@ -278,10 +294,13 @@
             <v>(0.026)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.027)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.041)</v>
+            <v>(0.042)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>(0.036)</v>
           </cell>
         </row>
         <row r="11">
@@ -298,7 +317,10 @@
             <v>4441</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2172</v>
+            <v>2156</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>2156</v>
           </cell>
         </row>
         <row r="12">
@@ -315,7 +337,10 @@
             <v>0.002</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.007</v>
+            <v>0.006</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>0.003</v>
           </cell>
         </row>
         <row r="13">
@@ -332,10 +357,13 @@
             <v>0.30</v>
           </cell>
           <cell r="E13" t="str">
-            <v>0.29</v>
+            <v>0.30</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.35</v>
+            <v>0.36</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>0.32</v>
           </cell>
         </row>
       </sheetData>
@@ -641,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CDD8A-A5B9-4973-A3CC-B413497D22BE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F12"/>
+      <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,68 +683,70 @@
     <col min="4" max="4" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="str">
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="str">
         <f>[1]repeat_loans!A2</f>
         <v/>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="6" t="str">
         <f>[1]repeat_loans!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="6" t="str">
         <f>[1]repeat_loans!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="6" t="str">
         <f>[1]repeat_loans!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="6" t="str">
         <f>[1]repeat_loans!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" s="6" t="str">
         <f>[1]repeat_loans!F2</f>
         <v>(5)</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="6" t="str">
+        <f>[1]repeat_loans!G2</f>
+        <v>(6)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -734,14 +764,18 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
-        <v>0.11**</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.10**</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>[1]repeat_loans!G5</f>
+        <v>0.072*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]repeat_loans!A6</f>
         <v/>
@@ -764,10 +798,14 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.046)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>(0.047)</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>[1]repeat_loans!G6</f>
+        <v>(0.039)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -785,14 +823,18 @@
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.049</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>[1]repeat_loans!G8</f>
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]repeat_loans!A9</f>
         <v/>
@@ -811,39 +853,50 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.027)</v>
+        <v>(0.028)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.041)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+        <v>(0.042)</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>[1]repeat_loans!G9</f>
+        <v>(0.036)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="7" t="str">
         <f>[1]repeat_loans!B11</f>
         <v>4441</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="7" t="str">
         <f>[1]repeat_loans!C11</f>
         <v>4441</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="7" t="str">
         <f>[1]repeat_loans!D11</f>
         <v>4441</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="7" t="str">
         <f>[1]repeat_loans!E11</f>
         <v>4441</v>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F10" s="7" t="str">
         <f>[1]repeat_loans!F11</f>
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2156</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>[1]repeat_loans!G11</f>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -865,39 +918,47 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]repeat_loans!F12</f>
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="str">
+        <v>0.006</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>[1]repeat_loans!G12</f>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
         <f>[1]repeat_loans!A13</f>
         <v>Control Mean</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="5" t="str">
         <f>[1]repeat_loans!B13</f>
         <v>0.32</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="5" t="str">
         <f>[1]repeat_loans!C13</f>
         <v>0.020</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="5" t="str">
         <f>[1]repeat_loans!D13</f>
         <v>0.30</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="5" t="str">
         <f>[1]repeat_loans!E13</f>
-        <v>0.29</v>
-      </c>
-      <c r="F12" s="7" t="str">
+        <v>0.30</v>
+      </c>
+      <c r="F12" s="5" t="str">
         <f>[1]repeat_loans!F13</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>0.36</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>[1]repeat_loans!G13</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BCAAF3-F96B-4B8B-8D54-F20369E40127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EA4AF-8CAB-4CCE-96BC-D71ABE156CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17535" yWindow="-11040" windowWidth="14400" windowHeight="8175" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-20025" yWindow="-13530" windowWidth="21600" windowHeight="11235" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -219,22 +219,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.067*</v>
+            <v>0.063</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.037***</v>
+            <v>0.041***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.032</v>
+            <v>0.024</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.047</v>
+            <v>0.042</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.10**</v>
+            <v>0.11**</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.072*</v>
+            <v>0.087*</v>
           </cell>
         </row>
         <row r="6">
@@ -242,42 +242,42 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.035)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(0.013)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.027)</v>
+            <v>(0.033)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.030)</v>
+            <v>(0.038)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.047)</v>
+            <v>(0.055)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.039)</v>
+            <v>(0.051)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>0.040</v>
+            <v>0.050</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.0098</v>
+            <v>0.022*</v>
           </cell>
           <cell r="D8" t="str">
-            <v>0.030</v>
+            <v>0.028</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.041</v>
+            <v>0.043</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.049</v>
+            <v>0.088*</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.053</v>
+            <v>0.076*</v>
           </cell>
         </row>
         <row r="9">
@@ -285,42 +285,42 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
+            <v>(0.036)</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>(0.011)</v>
+          </cell>
+          <cell r="D9" t="str">
             <v>(0.031)</v>
           </cell>
-          <cell r="C9" t="str">
-            <v>(0.0087)</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>(0.026)</v>
-          </cell>
           <cell r="E9" t="str">
-            <v>(0.028)</v>
+            <v>(0.033)</v>
           </cell>
           <cell r="F9" t="str">
+            <v>(0.045)</v>
+          </cell>
+          <cell r="G9" t="str">
             <v>(0.042)</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>(0.036)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>4441</v>
+            <v>6302</v>
           </cell>
           <cell r="C11" t="str">
-            <v>4441</v>
+            <v>6302</v>
           </cell>
           <cell r="D11" t="str">
-            <v>4441</v>
+            <v>6302</v>
           </cell>
           <cell r="E11" t="str">
-            <v>4441</v>
+            <v>6302</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2156</v>
+            <v>3032</v>
           </cell>
           <cell r="G11" t="str">
-            <v>2156</v>
+            <v>3032</v>
           </cell>
         </row>
         <row r="12">
@@ -328,7 +328,7 @@
             <v>0.003</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.006</v>
+            <v>0.007</v>
           </cell>
           <cell r="D12" t="str">
             <v>0.001</v>
@@ -337,10 +337,10 @@
             <v>0.002</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.006</v>
+            <v>0.008</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.003</v>
+            <v>0.005</v>
           </cell>
         </row>
         <row r="13">
@@ -348,22 +348,22 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
+            <v>0.34</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>0.018</v>
+          </cell>
+          <cell r="D13" t="str">
             <v>0.32</v>
           </cell>
-          <cell r="C13" t="str">
-            <v>0.020</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>0.30</v>
-          </cell>
           <cell r="E13" t="str">
-            <v>0.30</v>
+            <v>0.32</v>
           </cell>
           <cell r="F13" t="str">
             <v>0.36</v>
           </cell>
           <cell r="G13" t="str">
-            <v>0.32</v>
+            <v>0.33</v>
           </cell>
         </row>
       </sheetData>
@@ -752,27 +752,27 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]repeat_loans!B5</f>
-        <v>0.067*</v>
+        <v>0.063</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]repeat_loans!C5</f>
-        <v>0.037***</v>
+        <v>0.041***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]repeat_loans!D5</f>
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.047</v>
+        <v>0.042</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
-        <v>0.10**</v>
+        <v>0.11**</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]repeat_loans!G5</f>
-        <v>0.072*</v>
+        <v>0.087*</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -782,7 +782,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]repeat_loans!B6</f>
-        <v>(0.035)</v>
+        <v>(0.043)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]repeat_loans!C6</f>
@@ -790,19 +790,19 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]repeat_loans!D6</f>
-        <v>(0.027)</v>
+        <v>(0.033)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]repeat_loans!E6</f>
-        <v>(0.030)</v>
+        <v>(0.038)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.047)</v>
+        <v>(0.055)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]repeat_loans!G6</f>
-        <v>(0.039)</v>
+        <v>(0.051)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -811,27 +811,27 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]repeat_loans!B8</f>
-        <v>0.040</v>
+        <v>0.050</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]repeat_loans!C8</f>
-        <v>0.0098</v>
+        <v>0.022*</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]repeat_loans!D8</f>
-        <v>0.030</v>
+        <v>0.028</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.049</v>
+        <v>0.088*</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]repeat_loans!G8</f>
-        <v>0.053</v>
+        <v>0.076*</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -841,27 +841,27 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]repeat_loans!B9</f>
-        <v>(0.031)</v>
+        <v>(0.036)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]repeat_loans!C9</f>
-        <v>(0.0087)</v>
+        <v>(0.011)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]repeat_loans!D9</f>
-        <v>(0.026)</v>
+        <v>(0.031)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.028)</v>
+        <v>(0.033)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.042)</v>
+        <v>(0.045)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]repeat_loans!G9</f>
-        <v>(0.036)</v>
+        <v>(0.042)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -873,27 +873,27 @@
       </c>
       <c r="B10" s="7" t="str">
         <f>[1]repeat_loans!B11</f>
-        <v>4441</v>
+        <v>6302</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>[1]repeat_loans!C11</f>
-        <v>4441</v>
+        <v>6302</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>[1]repeat_loans!D11</f>
-        <v>4441</v>
+        <v>6302</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>[1]repeat_loans!E11</f>
-        <v>4441</v>
+        <v>6302</v>
       </c>
       <c r="F10" s="7" t="str">
         <f>[1]repeat_loans!F11</f>
-        <v>2156</v>
+        <v>3032</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>[1]repeat_loans!G11</f>
-        <v>2156</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]repeat_loans!C12</f>
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]repeat_loans!D12</f>
@@ -918,11 +918,11 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]repeat_loans!F12</f>
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]repeat_loans!G12</f>
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -932,19 +932,19 @@
       </c>
       <c r="B12" s="5" t="str">
         <f>[1]repeat_loans!B13</f>
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>[1]repeat_loans!C13</f>
-        <v>0.020</v>
+        <v>0.018</v>
       </c>
       <c r="D12" s="5" t="str">
         <f>[1]repeat_loans!D13</f>
-        <v>0.30</v>
+        <v>0.32</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>[1]repeat_loans!E13</f>
-        <v>0.30</v>
+        <v>0.32</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>[1]repeat_loans!F13</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G12" s="5" t="str">
         <f>[1]repeat_loans!G13</f>
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EA4AF-8CAB-4CCE-96BC-D71ABE156CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2F66E-18D8-4C93-B5DC-5E9E5AA7B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20025" yWindow="-13530" windowWidth="21600" windowHeight="11235" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-19515" yWindow="-13395" windowWidth="19245" windowHeight="9285" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>R-squared</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Within 90 days</t>
-  </si>
-  <si>
-    <t>Diff collateral cond. on rec</t>
   </si>
 </sst>
 </file>
@@ -213,9 +210,6 @@
           <cell r="F2" t="str">
             <v>(5)</v>
           </cell>
-          <cell r="G2" t="str">
-            <v>(6)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
@@ -233,9 +227,6 @@
           <cell r="F5" t="str">
             <v>0.11**</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>0.087*</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -256,9 +247,6 @@
           <cell r="F6" t="str">
             <v>(0.055)</v>
           </cell>
-          <cell r="G6" t="str">
-            <v>(0.051)</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
@@ -276,9 +264,6 @@
           <cell r="F8" t="str">
             <v>0.088*</v>
           </cell>
-          <cell r="G8" t="str">
-            <v>0.076*</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -299,9 +284,6 @@
           <cell r="F9" t="str">
             <v>(0.045)</v>
           </cell>
-          <cell r="G9" t="str">
-            <v>(0.042)</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
@@ -319,9 +301,6 @@
           <cell r="F11" t="str">
             <v>3032</v>
           </cell>
-          <cell r="G11" t="str">
-            <v>3032</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
@@ -339,9 +318,6 @@
           <cell r="F12" t="str">
             <v>0.008</v>
           </cell>
-          <cell r="G12" t="str">
-            <v>0.005</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -361,9 +337,6 @@
           </cell>
           <cell r="F13" t="str">
             <v>0.36</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>0.33</v>
           </cell>
         </row>
       </sheetData>
@@ -669,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CDD8A-A5B9-4973-A3CC-B413497D22BE}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,10 +656,9 @@
     <col min="4" max="4" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -695,9 +667,8 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -712,11 +683,8 @@
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="str">
         <f>[1]repeat_loans!A2</f>
         <v/>
@@ -741,12 +709,8 @@
         <f>[1]repeat_loans!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G4" s="6" t="str">
-        <f>[1]repeat_loans!G2</f>
-        <v>(6)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -770,12 +734,8 @@
         <f>[1]repeat_loans!F5</f>
         <v>0.11**</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f>[1]repeat_loans!G5</f>
-        <v>0.087*</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]repeat_loans!A6</f>
         <v/>
@@ -800,12 +760,8 @@
         <f>[1]repeat_loans!F6</f>
         <v>(0.055)</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f>[1]repeat_loans!G6</f>
-        <v>(0.051)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -829,12 +785,8 @@
         <f>[1]repeat_loans!F8</f>
         <v>0.088*</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f>[1]repeat_loans!G8</f>
-        <v>0.076*</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]repeat_loans!A9</f>
         <v/>
@@ -859,15 +811,8 @@
         <f>[1]repeat_loans!F9</f>
         <v>(0.045)</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>[1]repeat_loans!G9</f>
-        <v>(0.042)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -891,12 +836,8 @@
         <f>[1]repeat_loans!F11</f>
         <v>3032</v>
       </c>
-      <c r="G10" s="7" t="str">
-        <f>[1]repeat_loans!G11</f>
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -920,12 +861,8 @@
         <f>[1]repeat_loans!F12</f>
         <v>0.008</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f>[1]repeat_loans!G12</f>
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="str">
         <f>[1]repeat_loans!A13</f>
         <v>Control Mean</v>
@@ -950,15 +887,11 @@
         <f>[1]repeat_loans!F13</f>
         <v>0.36</v>
       </c>
-      <c r="G12" s="5" t="str">
-        <f>[1]repeat_loans!G13</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2F66E-18D8-4C93-B5DC-5E9E5AA7B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F301BD-503B-4B29-98BC-9EDE4BCE1B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19515" yWindow="-13395" windowWidth="19245" windowHeight="9285" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-28920" yWindow="-9735" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -136,11 +136,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,7 +169,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -213,16 +226,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.063</v>
+            <v>0.067*</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.041***</v>
+            <v>0.037***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.024</v>
+            <v>0.032</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.042</v>
+            <v>0.044</v>
           </cell>
           <cell r="F5" t="str">
             <v>0.11**</v>
@@ -233,36 +246,36 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.043)</v>
+            <v>(0.035)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(0.013)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.033)</v>
+            <v>(0.027)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.038)</v>
+            <v>(0.030)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.055)</v>
+            <v>(0.047)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>0.050</v>
+            <v>0.040</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.022*</v>
+            <v>0.0098</v>
           </cell>
           <cell r="D8" t="str">
-            <v>0.028</v>
+            <v>0.030</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.043</v>
+            <v>0.038</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.088*</v>
+            <v>0.057</v>
           </cell>
         </row>
         <row r="9">
@@ -270,36 +283,36 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.036)</v>
+            <v>(0.031)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.011)</v>
+            <v>(0.0087)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.031)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.033)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.045)</v>
+            <v>(0.042)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>6302</v>
+            <v>4441</v>
           </cell>
           <cell r="C11" t="str">
-            <v>6302</v>
+            <v>4441</v>
           </cell>
           <cell r="D11" t="str">
-            <v>6302</v>
+            <v>4441</v>
           </cell>
           <cell r="E11" t="str">
-            <v>6302</v>
+            <v>4441</v>
           </cell>
           <cell r="F11" t="str">
-            <v>3032</v>
+            <v>2170</v>
           </cell>
         </row>
         <row r="12">
@@ -307,7 +320,7 @@
             <v>0.003</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.007</v>
+            <v>0.006</v>
           </cell>
           <cell r="D12" t="str">
             <v>0.001</v>
@@ -324,19 +337,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
-            <v>0.34</v>
+            <v>0.32</v>
           </cell>
           <cell r="C13" t="str">
-            <v>0.018</v>
+            <v>0.020</v>
           </cell>
           <cell r="D13" t="str">
-            <v>0.32</v>
+            <v>0.30</v>
           </cell>
           <cell r="E13" t="str">
-            <v>0.32</v>
+            <v>0.30</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.36</v>
+            <v>0.35</v>
           </cell>
         </row>
       </sheetData>
@@ -346,9 +359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +399,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -492,7 +505,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CDD8A-A5B9-4973-A3CC-B413497D22BE}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
@@ -654,27 +667,36 @@
     <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -716,19 +738,19 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]repeat_loans!B5</f>
-        <v>0.063</v>
+        <v>0.067*</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]repeat_loans!C5</f>
-        <v>0.041***</v>
+        <v>0.037***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]repeat_loans!D5</f>
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]repeat_loans!E5</f>
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]repeat_loans!F5</f>
@@ -742,7 +764,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]repeat_loans!B6</f>
-        <v>(0.043)</v>
+        <v>(0.035)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]repeat_loans!C6</f>
@@ -750,15 +772,15 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]repeat_loans!D6</f>
-        <v>(0.033)</v>
+        <v>(0.027)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]repeat_loans!E6</f>
-        <v>(0.038)</v>
+        <v>(0.030)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]repeat_loans!F6</f>
-        <v>(0.055)</v>
+        <v>(0.047)</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -767,23 +789,23 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]repeat_loans!B8</f>
-        <v>0.050</v>
+        <v>0.040</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]repeat_loans!C8</f>
-        <v>0.022*</v>
+        <v>0.0098</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]repeat_loans!D8</f>
-        <v>0.028</v>
+        <v>0.030</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]repeat_loans!E8</f>
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]repeat_loans!F8</f>
-        <v>0.088*</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -793,24 +815,27 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]repeat_loans!B9</f>
-        <v>(0.036)</v>
+        <v>(0.031)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]repeat_loans!C9</f>
-        <v>(0.011)</v>
+        <v>(0.0087)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]repeat_loans!D9</f>
-        <v>(0.031)</v>
+        <v>(0.026)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]repeat_loans!E9</f>
-        <v>(0.033)</v>
+        <v>(0.028)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]repeat_loans!F9</f>
-        <v>(0.045)</v>
-      </c>
+        <v>(0.042)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -818,23 +843,23 @@
       </c>
       <c r="B10" s="7" t="str">
         <f>[1]repeat_loans!B11</f>
-        <v>6302</v>
+        <v>4441</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>[1]repeat_loans!C11</f>
-        <v>6302</v>
+        <v>4441</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>[1]repeat_loans!D11</f>
-        <v>6302</v>
+        <v>4441</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>[1]repeat_loans!E11</f>
-        <v>6302</v>
+        <v>4441</v>
       </c>
       <c r="F10" s="7" t="str">
         <f>[1]repeat_loans!F11</f>
-        <v>3032</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -847,7 +872,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]repeat_loans!C12</f>
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]repeat_loans!D12</f>
@@ -869,23 +894,23 @@
       </c>
       <c r="B12" s="5" t="str">
         <f>[1]repeat_loans!B13</f>
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>[1]repeat_loans!C13</f>
-        <v>0.018</v>
+        <v>0.020</v>
       </c>
       <c r="D12" s="5" t="str">
         <f>[1]repeat_loans!D13</f>
-        <v>0.32</v>
+        <v>0.30</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>[1]repeat_loans!E13</f>
-        <v>0.32</v>
+        <v>0.30</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>[1]repeat_loans!F13</f>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/repeat_loans.xlsx
+++ b/Tables/repeat_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F301BD-503B-4B29-98BC-9EDE4BCE1B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFFDA4-A47C-4E32-B215-CC2C969240B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9735" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
+    <workbookView xWindow="-23505" yWindow="-11130" windowWidth="21600" windowHeight="11295" xr2:uid="{4D4440F4-6748-4F85-9413-7DB268D90AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="repeat_loans" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,6 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>Choice commitment</t>
-  </si>
-  <si>
-    <t>Forced commitment</t>
-  </si>
-  <si>
     <t>Different collateral</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>Within 90 days</t>
+  </si>
+  <si>
+    <t>Mandatory structured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice </t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,7 +683,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -694,16 +694,16 @@
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -734,7 +734,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]repeat_loans!B5</f>
@@ -785,7 +785,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]repeat_loans!B8</f>
